--- a/2рт_оцінки.xlsx
+++ b/2рт_оцінки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\OneDrive\Робочий стіл\Асистенська_практика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0C8F5D4-3E59-43F7-8EBB-FF7DE2CB85C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCA07CE-E7CD-402A-9CB8-697605F534F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ЛР№5</t>
   </si>
@@ -115,18 +115,29 @@
   </si>
   <si>
     <t>Юсуфов Асан</t>
+  </si>
+  <si>
+    <t>ЛР№3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -220,21 +231,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -272,21 +268,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -304,21 +285,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -372,23 +338,175 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,49 +517,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,20 +870,23 @@
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="E2" s="34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -757,178 +895,194 @@
       <c r="C3" s="5">
         <v>0</v>
       </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="7" t="s">
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>90</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="22">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="7" t="s">
+      <c r="E4" s="19"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>85</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="22">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="7" t="s">
+      <c r="E5" s="19"/>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>95</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="22">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
-      <c r="B7" s="10" t="s">
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16"/>
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="13" t="s">
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5">
         <v>95</v>
       </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="7" t="s">
+      <c r="D8" s="21">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>87</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="22">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="7" t="s">
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>88</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="22">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="7" t="s">
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>71</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="22">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="10" t="s">
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16"/>
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="5">
         <v>85</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="21">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="7" t="s">
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>74</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="22">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="7" t="s">
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="8">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
-      <c r="B16" s="10" t="s">
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0</v>
+      </c>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="17"/>
+      <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>73</v>
       </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="25">
+        <v>0</v>
+      </c>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -937,141 +1091,153 @@
       <c r="C19" s="5">
         <v>0</v>
       </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="7" t="s">
+      <c r="D19" s="21">
+        <v>0</v>
+      </c>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="8">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="7" t="s">
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0</v>
+      </c>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>75</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="22">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="7" t="s">
+      <c r="E21" s="27"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>93</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="22">
         <v>94</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="20"/>
-      <c r="B23" s="10" t="s">
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="16"/>
+      <c r="B23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="11">
-        <v>0</v>
-      </c>
-      <c r="D23" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+      <c r="D23" s="23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="28"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="5">
         <v>0</v>
       </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="7" t="s">
+      <c r="D24" s="21">
+        <v>0</v>
+      </c>
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="8">
-        <v>0</v>
-      </c>
-      <c r="D25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="7" t="s">
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="22">
+        <v>0</v>
+      </c>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>95</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="22">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="7" t="s">
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="8">
-        <v>0</v>
-      </c>
-      <c r="D27" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="20"/>
-      <c r="B28" s="10" t="s">
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="22">
+        <v>0</v>
+      </c>
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="16"/>
+      <c r="B28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="9">
         <v>78</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="23">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="13" t="s">
+      <c r="E28" s="31"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="14">
         <v>88</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="32">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="21"/>
-      <c r="B30" s="10" t="s">
+      <c r="E29" s="26"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="17"/>
+      <c r="B30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="11">
-        <v>0</v>
-      </c>
-      <c r="D30" s="12">
-        <v>0</v>
-      </c>
+      <c r="C30" s="9">
+        <v>0</v>
+      </c>
+      <c r="D30" s="23">
+        <v>0</v>
+      </c>
+      <c r="E30" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1079,5 +1245,6 @@
     <mergeCell ref="A19:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2рт_оцінки.xlsx
+++ b/2рт_оцінки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\OneDrive\Робочий стіл\Асистенська_практика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCA07CE-E7CD-402A-9CB8-697605F534F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95B062F-2A5E-448B-B24C-47E2CCB05BBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="168" yWindow="0" windowWidth="11808" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -540,15 +540,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
@@ -577,6 +568,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,7 +861,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,12 +881,12 @@
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -895,181 +895,201 @@
       <c r="C3" s="5">
         <v>0</v>
       </c>
-      <c r="D3" s="21">
-        <v>0</v>
-      </c>
-      <c r="E3" s="18"/>
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="7">
         <v>90</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="19">
         <v>90</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="H4" s="33"/>
+      <c r="E4" s="16">
+        <v>90</v>
+      </c>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="7">
         <v>85</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="19">
         <v>93</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="H5" s="33"/>
+      <c r="E5" s="16">
+        <v>92</v>
+      </c>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="7">
         <v>95</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="19">
         <v>80</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="16">
+        <v>87</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="9">
         <v>0</v>
       </c>
-      <c r="D7" s="23">
-        <v>0</v>
-      </c>
-      <c r="E7" s="20"/>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5">
         <v>95</v>
       </c>
-      <c r="D8" s="21">
-        <v>0</v>
-      </c>
-      <c r="E8" s="18"/>
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>96</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="7">
         <v>87</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="19">
         <v>84</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="21">
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
         <v>88</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="19">
         <v>100</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="21">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="7">
         <v>71</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="19">
         <v>87</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="21">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="9">
         <v>0</v>
       </c>
-      <c r="D12" s="23">
-        <v>0</v>
-      </c>
-      <c r="E12" s="20"/>
+      <c r="D12" s="20">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="5">
         <v>85</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="18">
         <v>91</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="15">
+        <v>87</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="7">
         <v>74</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="19">
         <v>62</v>
       </c>
-      <c r="E14" s="24"/>
+      <c r="E14" s="21">
+        <v>94</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
       </c>
-      <c r="D15" s="22">
-        <v>0</v>
-      </c>
-      <c r="E15" s="24"/>
+      <c r="D15" s="19">
+        <v>0</v>
+      </c>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="9">
         <v>73</v>
       </c>
-      <c r="D16" s="25">
-        <v>0</v>
-      </c>
-      <c r="E16" s="20"/>
+      <c r="D16" s="22">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
@@ -1082,7 +1102,7 @@
       <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="32" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1091,153 +1111,159 @@
       <c r="C19" s="5">
         <v>0</v>
       </c>
-      <c r="D19" s="21">
-        <v>0</v>
-      </c>
-      <c r="E19" s="26"/>
+      <c r="D19" s="18">
+        <v>0</v>
+      </c>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="22">
-        <v>0</v>
-      </c>
-      <c r="E20" s="27"/>
+      <c r="D20" s="19">
+        <v>0</v>
+      </c>
+      <c r="E20" s="24">
+        <v>87</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>75</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="19">
         <v>83</v>
       </c>
-      <c r="E21" s="27"/>
+      <c r="E21" s="24">
+        <v>78</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="7">
         <v>93</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="19">
         <v>94</v>
       </c>
-      <c r="E22" s="27"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="16"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="9">
         <v>0</v>
       </c>
-      <c r="D23" s="23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="28"/>
+      <c r="D23" s="20">
+        <v>0</v>
+      </c>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="5">
         <v>0</v>
       </c>
-      <c r="D24" s="21">
-        <v>0</v>
-      </c>
-      <c r="E24" s="29"/>
+      <c r="D24" s="18">
+        <v>0</v>
+      </c>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
       </c>
-      <c r="D25" s="22">
-        <v>0</v>
-      </c>
-      <c r="E25" s="27"/>
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>95</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="19">
         <v>100</v>
       </c>
-      <c r="E26" s="30"/>
+      <c r="E26" s="27">
+        <v>85</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
       </c>
-      <c r="D27" s="22">
-        <v>0</v>
-      </c>
-      <c r="E27" s="27"/>
+      <c r="D27" s="19">
+        <v>0</v>
+      </c>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="16"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="9">
         <v>78</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="20">
         <v>95</v>
       </c>
-      <c r="E28" s="31"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="14">
         <v>88</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="29">
         <v>95</v>
       </c>
-      <c r="E29" s="26"/>
+      <c r="E29" s="23"/>
     </row>
     <row r="30" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="17"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="9">
         <v>0</v>
       </c>
-      <c r="D30" s="23">
-        <v>0</v>
-      </c>
-      <c r="E30" s="31"/>
+      <c r="D30" s="20">
+        <v>0</v>
+      </c>
+      <c r="E30" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/2рт_оцінки.xlsx
+++ b/2рт_оцінки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\OneDrive\Робочий стіл\Асистенська_практика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95B062F-2A5E-448B-B24C-47E2CCB05BBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314A7032-6D2C-4061-8714-C7659031EF8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="168" yWindow="0" windowWidth="11808" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -946,7 +946,7 @@
         <v>80</v>
       </c>
       <c r="E6" s="16">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -989,7 +989,7 @@
         <v>84</v>
       </c>
       <c r="E9" s="21">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1047,7 +1047,7 @@
         <v>91</v>
       </c>
       <c r="E13" s="15">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="24">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1143,7 +1143,7 @@
         <v>83</v>
       </c>
       <c r="E21" s="24">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
